--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C4DE98-92F2-4349-8423-FFB0D2980646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62646C-4690-4399-8C0A-FA7E8B7D7020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="2172" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -163,6 +163,72 @@
   </si>
   <si>
     <t>ResEffect_2</t>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateForward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这个挂载点对应位置生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载点的相对偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对发送者的面向偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSceneEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否场景特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一key(用来便于准确删除)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建特效3</t>
+  </si>
+  <si>
+    <t>ResEffect_3</t>
   </si>
 </sst>
 </file>
@@ -281,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -291,6 +357,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -582,10 +651,10 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="7" width="13.77734375" customWidth="1"/>
+    <col min="6" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,12 +672,24 @@
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -621,8 +702,10 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -632,12 +715,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -650,8 +733,10 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -669,12 +754,24 @@
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -687,8 +784,10 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -700,12 +799,12 @@
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -718,8 +817,10 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -737,12 +838,24 @@
       <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+      <c r="H5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -755,8 +868,10 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -774,8 +889,18 @@
       <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -793,6 +918,45 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8" si="1">B8&amp;"_"&amp;C8</f>
+        <v>CreateEffect_3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE62646C-4690-4399-8C0A-FA7E8B7D7020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427BC89-F847-41F1-92A1-FE5135BB3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -185,26 +185,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>vector3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>持续时间(s)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>从这个挂载点对应位置生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂载点的相对偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对发送者的面向偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>isSceneEffect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -229,6 +213,101 @@
   </si>
   <si>
     <t>ResEffect_3</t>
+  </si>
+  <si>
+    <t>创建特效4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名</t>
+  </si>
+  <si>
+    <t>相对偏移</t>
+  </si>
+  <si>
+    <t>相对旋转</t>
+  </si>
+  <si>
+    <t>OffSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTankFireShow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTank火花+子弹特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower火花+子弹特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.9469,1.1227</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.125,1.161,0.914</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BeHitShow_1</t>
+  </si>
+  <si>
+    <t>ResEffect_DeathShow_1</t>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_MachineGunLvl1Effect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineGunLvl1Effect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_EneryPylon_PFX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_LaserFireEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_EnemyShootEffect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EneryPylon_PFX1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserFireEffect1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -303,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -335,6 +414,43 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -347,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -361,6 +477,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -639,22 +773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,23 +807,19 @@
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -701,11 +831,8 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -718,9 +845,15 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -732,11 +865,8 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -761,17 +891,13 @@
         <v>25</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -783,11 +909,8 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -816,11 +939,8 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -839,22 +959,22 @@
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -867,11 +987,8 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -900,7 +1017,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -929,7 +1046,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -941,11 +1058,11 @@
         <v>CreateEffect_3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="9">
@@ -954,11 +1071,210 @@
       <c r="J8" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9" si="2">B9&amp;"_"&amp;C9</f>
+        <v>CreateEffect_4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" ref="D10:D13" si="3">B10&amp;"_"&amp;C10</f>
+        <v>CreateEffect_MachineGunLvl1Effect_1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D12" si="4">B11&amp;"_"&amp;C11</f>
+        <v>CreateEffect_EneryPylon_PFX1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9">
+        <v>5</v>
+      </c>
+      <c r="J11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="4"/>
+        <v>CreateEffect_LaserFireEffect1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="3"/>
+        <v>CreateEffect_HoverTankFireShow1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14" si="5">B14&amp;"_"&amp;C14</f>
+        <v>CreateEffect_BeHit1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="6">B15&amp;"_"&amp;C15</f>
+        <v>CreateEffect_Death_1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_CreateEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D427BC89-F847-41F1-92A1-FE5135BB3AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455E467-579E-4C04-A7C2-7292B11EA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -212,102 +212,199 @@
     <t>创建特效3</t>
   </si>
   <si>
+    <t>创建特效4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名</t>
+  </si>
+  <si>
+    <t>相对偏移</t>
+  </si>
+  <si>
+    <t>相对旋转</t>
+  </si>
+  <si>
+    <t>OffSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTankFireShow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HoverTank火花+子弹特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower火花+子弹特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.9469,1.1227</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.125,1.161,0.914</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeHit1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_BeHitShow_1</t>
+  </si>
+  <si>
+    <t>ResEffect_DeathShow_1</t>
+  </si>
+  <si>
+    <t>死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_MachineGunLvl1Effect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MachineGunLvl1Effect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_EneryPylon_PFX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_LaserFireEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResEffect_EnemyShootEffect_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EneryPylon_PFX1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserFireEffect1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人单体攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方aoe攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方单体攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PlayerAoe1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Fire</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSolo1_Fire</t>
+  </si>
+  <si>
+    <t>PlayerSolo1_Fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EnemySolo1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Fire</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪开火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮击开火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击开火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAoe1_Fire</t>
+  </si>
+  <si>
+    <t>EnemySolo1_Fire</t>
+  </si>
+  <si>
+    <t>PlayerLine1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCircle1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线火焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形毒雾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>ResEffect_3</t>
-  </si>
-  <si>
-    <t>创建特效4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>offSetInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点名</t>
-  </si>
-  <si>
-    <t>相对偏移</t>
-  </si>
-  <si>
-    <t>相对旋转</t>
-  </si>
-  <si>
-    <t>OffSetInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HoverTankFireShow1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HoverTank火花+子弹特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tower火花+子弹特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.9469,1.1227</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.125,1.161,0.914</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeHit1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击中</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_BeHitShow_1</t>
-  </si>
-  <si>
-    <t>ResEffect_DeathShow_1</t>
-  </si>
-  <si>
-    <t>死亡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Death_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_MachineGunLvl1Effect_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MachineGunLvl1Effect_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_EneryPylon_PFX</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_LaserFireEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResEffect_EnemyShootEffect_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EneryPylon_PFX1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserFireEffect1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEffect_1</t>
+  </si>
+  <si>
+    <t>CreateEffect_2</t>
+  </si>
+  <si>
+    <t>CreateEffect_3</t>
   </si>
 </sst>
 </file>
@@ -773,19 +870,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="13" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -816,7 +921,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="11"/>
       <c r="M1" s="12"/>
@@ -894,7 +999,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="15"/>
@@ -968,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -1006,7 +1111,9 @@
       <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="I6" s="9">
         <v>5</v>
       </c>
@@ -1035,7 +1142,9 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="I7" s="9">
         <v>5</v>
       </c>
@@ -1061,10 +1170,12 @@
         <v>32</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="9">
         <v>5</v>
       </c>
@@ -1084,7 +1195,7 @@
         <v>CreateEffect_4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="8" t="s">
@@ -1103,18 +1214,18 @@
         <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" ref="D10:D13" si="3">B10&amp;"_"&amp;C10</f>
         <v>CreateEffect_MachineGunLvl1Effect_1</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9">
@@ -1124,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1132,18 +1243,18 @@
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11:D12" si="4">B11&amp;"_"&amp;C11</f>
         <v>CreateEffect_EneryPylon_PFX1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9">
@@ -1153,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1161,18 +1272,18 @@
         <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="4"/>
         <v>CreateEffect_LaserFireEffect1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9">
@@ -1182,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1190,18 +1301,18 @@
         <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
         <v>CreateEffect_HoverTankFireShow1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9">
@@ -1211,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1219,18 +1330,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D14:D20" si="5">B14&amp;"_"&amp;C14</f>
+        <v>CreateEffect_BeHit1</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ref="D14" si="5">B14&amp;"_"&amp;C14</f>
-        <v>CreateEffect_BeHit1</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9">
@@ -1240,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1248,18 +1359,18 @@
         <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ref="D15" si="6">B15&amp;"_"&amp;C15</f>
+        <f t="shared" ref="D15:D19" si="6">B15&amp;"_"&amp;C15</f>
         <v>CreateEffect_Death_1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9">
@@ -1269,6 +1380,165 @@
         <v>1</v>
       </c>
       <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="5"/>
+        <v>CreateEffect_PlayerSolo1_Fire</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="6"/>
+        <v>CreateEffect_PlayerAoe1_Fire</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>CreateEffect_EnemySolo1_Fire</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="6"/>
+        <v>CreateEffect_PlayerLine1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="5"/>
+        <v>CreateEffect_PlayerCircle1</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
